--- a/src/test/resources/ci/gouv/dgbf/system/collectif/server/impl/depenses_ajutements.xlsx
+++ b/src/test/resources/ci/gouv/dgbf/system/collectif/server/impl/depenses_ajutements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\source\git\ci\gouv\dgbf\system\collectif\server\impl\collectif-server-impl-quarkus\src\test\resources\ci\gouv\dgbf\system\collectif\server\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B47448-FAF4-4F5B-901F-2E113B09D8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB4A1B-254A-4F9D-90A5-08D8F7FCB519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE814A24-807E-43FD-8633-8BDFA231673E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>7B33E851AAA040C1B2D6429EB3D93F08</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8384603-5B17-4B9C-ABF8-D0AFFC405D1D}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,22 +1074,59 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>25073300052</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1290861</v>
+      </c>
+      <c r="F31">
+        <v>1290861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>78074000651</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>713819</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>713819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>78045200170</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1500000</v>
+      </c>
+      <c r="F33">
+        <v>1500000</v>
       </c>
     </row>
   </sheetData>
@@ -1098,21 +1135,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BDEEFE7C481604F98112755848F7E55" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bec13febbf399099ec29ff5c963f2ec4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5329cd07-d107-404c-a7a7-ad76c67e61f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ce90015ef67171989ca899d9cf88bec" ns3:_="">
     <xsd:import namespace="5329cd07-d107-404c-a7a7-ad76c67e61f6"/>
@@ -1244,31 +1266,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5535EB92-C9AE-4173-AD00-D0BF45C14ED1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5329cd07-d107-404c-a7a7-ad76c67e61f6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6BE287-EDD7-4414-8ED6-3C7ED54CE979}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79580EC-5DFE-4C2E-BC01-22CB85AA0F72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1284,4 +1297,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6BE287-EDD7-4414-8ED6-3C7ED54CE979}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5535EB92-C9AE-4173-AD00-D0BF45C14ED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5329cd07-d107-404c-a7a7-ad76c67e61f6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>